--- a/pubmed_validation_sheets/10372296 DISNET VALIDATION.xlsx
+++ b/pubmed_validation_sheets/10372296 DISNET VALIDATION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/DISNET/CURRENT/pubmed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/IdeaProjects/disnet_rest/tmp/excel/pubmed/1.Validated/OK_DISNET_VALIDATION_PUBMED_(100)_v0.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{99E1A5DF-1A2A-DA4B-A474-96BD32E7E825}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC222C3-523C-7142-99F1-271006D4CF0A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38800" yWindow="460" windowWidth="21520" windowHeight="21060" xr2:uid="{6E52D1B4-F9CB-4441-9081-5C2868523BBB}"/>
+    <workbookView xWindow="39060" yWindow="460" windowWidth="25600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VALIDATION!$A$3:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="128">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -396,18 +399,37 @@
   </si>
   <si>
     <t>FPCONTEXT</t>
+  </si>
+  <si>
+    <t>vegetations</t>
+  </si>
+  <si>
+    <t>Vegetation</t>
+  </si>
+  <si>
+    <t>[anab]</t>
+  </si>
+  <si>
+    <t>trigger</t>
+  </si>
+  <si>
+    <t>Precipitating factor</t>
+  </si>
+  <si>
+    <t>[clna]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -422,6 +444,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -475,16 +504,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,44 +658,44 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,10 +709,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -719,6 +749,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -738,8 +771,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -797,7 +831,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -849,7 +883,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1050,14 +1084,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F743750-5540-5B42-BCD9-474CEE4AA1C7}">
-  <dimension ref="A1:I56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.83203125" bestFit="1" customWidth="1"/>
@@ -1069,37 +1103,37 @@
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="122" customHeight="1" thickBot="1">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:9" ht="122" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1125,7 +1159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1154,7 +1188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1183,7 +1217,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1212,7 +1246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1241,7 +1275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1270,7 +1304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1299,7 +1333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1328,7 +1362,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1357,7 +1391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1386,7 +1420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1415,7 +1449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1444,7 +1478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1473,7 +1507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1502,7 +1536,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1531,7 +1565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1560,7 +1594,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1589,7 +1623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1618,7 +1652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1647,7 +1681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1676,7 +1710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1705,7 +1739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1734,7 +1768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1763,7 +1797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1792,7 +1826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1821,7 +1855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1850,7 +1884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1879,7 +1913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1908,7 +1942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1937,7 +1971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1966,7 +2000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1995,7 +2029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -2024,7 +2058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
@@ -2053,7 +2087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2082,7 +2116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
@@ -2111,7 +2145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
@@ -2140,7 +2174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
@@ -2169,7 +2203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
@@ -2198,7 +2232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -2227,7 +2261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
@@ -2256,7 +2290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
@@ -2285,7 +2319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
@@ -2314,7 +2348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
@@ -2343,7 +2377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
@@ -2372,7 +2406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
@@ -2401,7 +2435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
@@ -2430,7 +2464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>46</v>
       </c>
@@ -2459,59 +2493,77 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-    </row>
-    <row r="51" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>48</v>
+      </c>
       <c r="B51" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="15"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="B52" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="B53" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -2529,9 +2581,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B54" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -2549,9 +2601,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B55" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -2569,9 +2621,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B56" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -2589,8 +2641,60 @@
         <v>13</v>
       </c>
     </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:I3" xr:uid="{5DB3985D-A893-BD4D-AA2D-0A4F0E64A116}">
+  <autoFilter ref="A3:I3" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState ref="A4:I49">
       <sortCondition ref="A3:A49"/>
     </sortState>
@@ -2601,6 +2705,10 @@
     <mergeCell ref="F2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>